--- a/classfiers/bloated/welm/bloated_welm_tanh_results.xlsx
+++ b/classfiers/bloated/welm/bloated_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9527896995708155</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7105381165919282</v>
+        <v>0.7980928689883914</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9527896995708155</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.747085201793722</v>
+        <v>0.6881773399014778</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9313304721030042</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6054147465437787</v>
+        <v>0.7725</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9267241379310345</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8694938440492476</v>
+        <v>0.3161976911976913</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9525862068965517</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5960510078157137</v>
+        <v>0.88082315694256</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9432440432144442</v>
+        <v>0.9434980954911861</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.705716583358878</v>
+        <v>0.6911582114060242</v>
       </c>
     </row>
   </sheetData>
